--- a/mode/Easy_0-30/NewEngineFormulas.xlsx
+++ b/mode/Easy_0-30/NewEngineFormulas.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -893,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,10 +924,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1212,7 +1211,7 @@
       </c>
       <c r="H20" s="16">
         <f>ROUND(((F20-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1231,7 +1230,7 @@
       </c>
       <c r="H21" s="16">
         <f>ROUND(((F21-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1249,7 @@
       </c>
       <c r="H22" s="16">
         <f>ROUND(((F22-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1269,7 +1268,7 @@
       </c>
       <c r="H23" s="16">
         <f>ROUND(((F23-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1305,7 +1304,7 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" ref="H25:H32" si="0">ROUND(((F25-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1324,7 +1323,7 @@
       </c>
       <c r="H26" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1343,7 +1342,7 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1361,7 @@
       </c>
       <c r="H28" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1381,7 +1380,7 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1400,7 +1399,7 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1419,7 +1418,7 @@
       </c>
       <c r="H31" s="16">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1438,7 +1437,7 @@
       </c>
       <c r="H32" s="16">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,7 +1473,7 @@
       </c>
       <c r="H34" s="16">
         <f t="shared" ref="H34:H41" si="2">ROUND(((F34-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1493,7 +1492,7 @@
       </c>
       <c r="H35" s="16">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1512,7 +1511,7 @@
       </c>
       <c r="H36" s="16">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1531,7 +1530,7 @@
       </c>
       <c r="H37" s="16">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1550,7 +1549,7 @@
       </c>
       <c r="H38" s="16">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1569,7 +1568,7 @@
       </c>
       <c r="H39" s="16">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1588,7 +1587,7 @@
       </c>
       <c r="H40" s="16">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1607,7 +1606,7 @@
       </c>
       <c r="H41" s="16">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1643,7 +1642,7 @@
       </c>
       <c r="H43" s="16">
         <f t="shared" ref="H43:H49" si="4">ROUND(((F43-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1661,7 @@
       </c>
       <c r="H44" s="16">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1680,7 @@
       </c>
       <c r="H45" s="16">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1700,7 +1699,7 @@
       </c>
       <c r="H46" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1719,7 +1718,7 @@
       </c>
       <c r="H47" s="16">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1738,7 +1737,7 @@
       </c>
       <c r="H48" s="16">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1756,7 @@
       </c>
       <c r="H49" s="16">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,7 +1792,7 @@
       </c>
       <c r="H51" s="16">
         <f t="shared" ref="H51:H57" si="6">ROUND(((F51-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1812,7 +1811,7 @@
       </c>
       <c r="H52" s="16">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1831,7 +1830,7 @@
       </c>
       <c r="H53" s="16">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1850,7 +1849,7 @@
       </c>
       <c r="H54" s="16">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1869,7 +1868,7 @@
       </c>
       <c r="H55" s="16">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1888,7 +1887,7 @@
       </c>
       <c r="H56" s="16">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1907,7 +1906,7 @@
       </c>
       <c r="H57" s="16">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,7 +1942,7 @@
       </c>
       <c r="H59" s="16">
         <f t="shared" ref="H59:H65" si="8">ROUND(((F59-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1962,7 +1961,7 @@
       </c>
       <c r="H60" s="16">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1981,7 +1980,7 @@
       </c>
       <c r="H61" s="16">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2000,7 +1999,7 @@
       </c>
       <c r="H62" s="16">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2019,7 +2018,7 @@
       </c>
       <c r="H63" s="16">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2038,7 +2037,7 @@
       </c>
       <c r="H64" s="16">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2056,7 @@
       </c>
       <c r="H65" s="16">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,7 +2092,7 @@
       </c>
       <c r="H67" s="16">
         <f t="shared" ref="H67:H75" si="10">ROUND(((F67-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2112,7 +2111,7 @@
       </c>
       <c r="H68" s="16">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2131,7 +2130,7 @@
       </c>
       <c r="H69" s="16">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2150,7 +2149,7 @@
       </c>
       <c r="H70" s="16">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2169,7 +2168,7 @@
       </c>
       <c r="H71" s="16">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2188,7 +2187,7 @@
       </c>
       <c r="H72" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2207,7 +2206,7 @@
       </c>
       <c r="H73" s="16">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2226,7 +2225,7 @@
       </c>
       <c r="H74" s="16">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2244,7 @@
       </c>
       <c r="H75" s="16">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2281,7 +2280,7 @@
       </c>
       <c r="H77" s="16">
         <f t="shared" ref="H77:H83" si="12">ROUND(((F77-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2300,7 +2299,7 @@
       </c>
       <c r="H78" s="16">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2319,7 +2318,7 @@
       </c>
       <c r="H79" s="16">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2338,7 +2337,7 @@
       </c>
       <c r="H80" s="16">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2357,7 +2356,7 @@
       </c>
       <c r="H81" s="16">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2376,7 +2375,7 @@
       </c>
       <c r="H82" s="16">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2395,7 +2394,7 @@
       </c>
       <c r="H83" s="16">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2431,7 +2430,7 @@
       </c>
       <c r="H85" s="16">
         <f>ROUND(((F85-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2450,7 +2449,7 @@
       </c>
       <c r="H86" s="16">
         <f>ROUND(((F86-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2469,7 +2468,7 @@
       </c>
       <c r="H87" s="16">
         <f>ROUND(((F87-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2505,7 +2504,7 @@
       </c>
       <c r="H89" s="16">
         <f>ROUND(((F89-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2524,7 +2523,7 @@
       </c>
       <c r="H90" s="16">
         <f>ROUND(((F90-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2543,7 +2542,7 @@
       </c>
       <c r="H91" s="16">
         <f>ROUND(((F91-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2579,7 +2578,7 @@
       </c>
       <c r="H93" s="16">
         <f t="shared" ref="H93:H98" si="15">ROUND(((F93-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2598,7 +2597,7 @@
       </c>
       <c r="H94" s="16">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2617,7 +2616,7 @@
       </c>
       <c r="H95" s="16">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2636,7 +2635,7 @@
       </c>
       <c r="H96" s="16">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2655,7 +2654,7 @@
       </c>
       <c r="H97" s="16">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2674,7 +2673,7 @@
       </c>
       <c r="H98" s="16">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -2710,7 +2709,7 @@
       </c>
       <c r="H100" s="16">
         <f t="shared" ref="H100:H111" si="16">ROUND(((F100-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2729,7 +2728,7 @@
       </c>
       <c r="H101" s="16">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2748,7 +2747,7 @@
       </c>
       <c r="H102" s="16">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2767,7 +2766,7 @@
       </c>
       <c r="H103" s="16">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2785,7 @@
       </c>
       <c r="H104" s="16">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2805,7 +2804,7 @@
       </c>
       <c r="H105" s="16">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2824,7 +2823,7 @@
       </c>
       <c r="H106" s="16">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2843,7 +2842,7 @@
       </c>
       <c r="H107" s="16">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2862,7 +2861,7 @@
       </c>
       <c r="H108" s="16">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,7 +2880,7 @@
       </c>
       <c r="H109" s="16">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2900,7 +2899,7 @@
       </c>
       <c r="H110" s="16">
         <f t="shared" si="16"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2919,7 +2918,7 @@
       </c>
       <c r="H111" s="16">
         <f t="shared" si="16"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,7 +2954,7 @@
       </c>
       <c r="H113" s="16">
         <f t="shared" ref="H113:H120" si="18">ROUND(((F113-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2974,7 +2973,7 @@
       </c>
       <c r="H114" s="16">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2993,7 +2992,7 @@
       </c>
       <c r="H115" s="16">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3012,7 +3011,7 @@
       </c>
       <c r="H116" s="16">
         <f t="shared" si="18"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3031,7 +3030,7 @@
       </c>
       <c r="H117" s="16">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3050,7 +3049,7 @@
       </c>
       <c r="H118" s="16">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3069,7 +3068,7 @@
       </c>
       <c r="H119" s="16">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3088,7 +3087,7 @@
       </c>
       <c r="H120" s="16">
         <f t="shared" si="18"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3124,7 +3123,7 @@
       </c>
       <c r="H122" s="16">
         <f t="shared" ref="H122:H129" si="20">ROUND(((F122-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3143,7 +3142,7 @@
       </c>
       <c r="H123" s="16">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3162,7 +3161,7 @@
       </c>
       <c r="H124" s="16">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3181,7 +3180,7 @@
       </c>
       <c r="H125" s="16">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3200,7 +3199,7 @@
       </c>
       <c r="H126" s="16">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3219,7 +3218,7 @@
       </c>
       <c r="H127" s="16">
         <f t="shared" si="20"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3238,7 +3237,7 @@
       </c>
       <c r="H128" s="16">
         <f t="shared" si="20"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3257,7 +3256,7 @@
       </c>
       <c r="H129" s="16">
         <f t="shared" si="20"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,7 +3292,7 @@
       </c>
       <c r="H131" s="16">
         <f t="shared" ref="H131:H149" si="22">ROUND(((F131-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3312,7 +3311,7 @@
       </c>
       <c r="H132" s="16">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3331,7 +3330,7 @@
       </c>
       <c r="H133" s="16">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3350,7 +3349,7 @@
       </c>
       <c r="H134" s="16">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3369,7 +3368,7 @@
       </c>
       <c r="H135" s="16">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3388,7 +3387,7 @@
       </c>
       <c r="H136" s="16">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3407,7 +3406,7 @@
       </c>
       <c r="H137" s="16">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3426,7 +3425,7 @@
       </c>
       <c r="H138" s="16">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3444,7 @@
       </c>
       <c r="H139" s="16">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3464,7 +3463,7 @@
       </c>
       <c r="H140" s="16">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3483,7 +3482,7 @@
       </c>
       <c r="H141" s="16">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3502,7 +3501,7 @@
       </c>
       <c r="H142" s="16">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3521,7 +3520,7 @@
       </c>
       <c r="H143" s="16">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3540,7 +3539,7 @@
       </c>
       <c r="H144" s="16">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3559,7 +3558,7 @@
       </c>
       <c r="H145" s="16">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3578,7 +3577,7 @@
       </c>
       <c r="H146" s="16">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3597,7 +3596,7 @@
       </c>
       <c r="H147" s="16">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3616,7 +3615,7 @@
       </c>
       <c r="H148" s="16">
         <f t="shared" si="22"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3635,7 +3634,7 @@
       </c>
       <c r="H149" s="16">
         <f t="shared" si="22"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -3671,7 +3670,7 @@
       </c>
       <c r="H151" s="16">
         <f>ROUND(((F151-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3690,7 +3689,7 @@
       </c>
       <c r="H152" s="16">
         <f>ROUND(((F152-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3709,7 +3708,7 @@
       </c>
       <c r="H153" s="16">
         <f>ROUND(((F153-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3728,7 +3727,7 @@
       </c>
       <c r="H154" s="16">
         <f>ROUND(((F154-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -3764,7 +3763,7 @@
       </c>
       <c r="H156" s="16">
         <f t="shared" ref="H156:H164" si="24">ROUND(((F156-$C$4)/($D$4-$C$4))*($D$2-$C$2),0)+$C$2</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3783,7 +3782,7 @@
       </c>
       <c r="H157" s="16">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3802,7 +3801,7 @@
       </c>
       <c r="H158" s="16">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3821,7 +3820,7 @@
       </c>
       <c r="H159" s="16">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3840,7 +3839,7 @@
       </c>
       <c r="H160" s="16">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3859,7 +3858,7 @@
       </c>
       <c r="H161" s="16">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3878,7 +3877,7 @@
       </c>
       <c r="H162" s="16">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3897,7 +3896,7 @@
       </c>
       <c r="H163" s="16">
         <f t="shared" si="24"/>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3916,7 +3915,7 @@
       </c>
       <c r="H164" s="16">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
